--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1224960.246452887</v>
+        <v>-1227441.166278347</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
         <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>20.95199947079777</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104942</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1427,13 +1427,13 @@
         <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>29.43796873306396</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>5.554995689502948</v>
+        <v>104.5264784146758</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890427</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.813695076354</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851352</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.811883976188255e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302864</v>
       </c>
       <c r="X14" t="n">
-        <v>91.3806143411543</v>
+        <v>339.2375747280609</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.317792068927</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948107</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>91.64125360806206</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271155</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.1595281393124</v>
+        <v>62.01200608292078</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443153</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890426</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184863</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367014</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,7 +1850,7 @@
         <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>283.8215270109025</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359923</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477343</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>141.5173381326144</v>
       </c>
       <c r="W17" t="n">
         <v>275.3456855116939</v>
@@ -2008,7 +2008,7 @@
         <v>74.72018981249326</v>
       </c>
       <c r="E19" t="n">
-        <v>134.938373635814</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F19" t="n">
         <v>71.52576481721215</v>
@@ -2017,7 +2017,7 @@
         <v>92.13052505330913</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860169</v>
+        <v>133.2594259035657</v>
       </c>
       <c r="I19" t="n">
         <v>22.45713720411901</v>
@@ -2081,7 +2081,7 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149638</v>
@@ -2090,10 +2090,10 @@
         <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359923</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>295.3519326996206</v>
+        <v>336.9550866703233</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2257,7 @@
         <v>70.85973170860169</v>
       </c>
       <c r="I22" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432823</v>
+        <v>77.43656365929192</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654142</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.022686933901</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2485,7 +2485,7 @@
         <v>72.53867944085007</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9254590121761</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G25" t="n">
         <v>92.13052505330913</v>
@@ -2494,7 +2494,7 @@
         <v>70.85973170860169</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.457137204119</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432823</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2539,7 +2539,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782822</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463757</v>
@@ -2609,7 +2609,7 @@
         <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797654</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433862</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124547</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958321</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797654</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433862</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>90.60953276887581</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.3775161911467</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007073</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307968</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383218</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349176</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010723</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846405</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309231</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621566</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333679</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775077</v>
+        <v>239.4866237999589</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353754</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925778</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441566</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007068</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T41" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307968</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420297</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893078</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279484</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.6864980364946</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010719</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482608</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092306</v>
+        <v>68.34108803092332</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621562</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257884</v>
       </c>
       <c r="T43" t="n">
-        <v>121.864229048064</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084858</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239896</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>120.5216066929749</v>
+        <v>113.1013389531835</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1802.585586845659</v>
+        <v>1781.421951016571</v>
       </c>
       <c r="C11" t="n">
-        <v>1460.815137164971</v>
+        <v>1439.651501335883</v>
       </c>
       <c r="D11" t="n">
-        <v>1129.741505817945</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="E11" t="n">
         <v>1108.577869988856</v>
@@ -5030,7 +5030,7 @@
         <v>724.7840324589722</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636926</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218339</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5063,7 +5063,7 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
         <v>3242.507220395988</v>
@@ -5072,19 +5072,19 @@
         <v>3063.721540039934</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573493</v>
       </c>
       <c r="V11" t="n">
-        <v>2837.383130573494</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W11" t="n">
-        <v>2511.806542563104</v>
+        <v>2503.776988537057</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.532851561748</v>
+        <v>2503.776988537057</v>
       </c>
       <c r="Y11" t="n">
-        <v>1802.585586845659</v>
+        <v>2140.829723820969</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5142,28 +5142,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>766.3695470152579</v>
+        <v>480.951027543685</v>
       </c>
       <c r="C13" t="n">
-        <v>624.6254313470747</v>
+        <v>480.951027543685</v>
       </c>
       <c r="D13" t="n">
-        <v>501.7008591944626</v>
+        <v>480.951027543685</v>
       </c>
       <c r="E13" t="n">
-        <v>380.9798328717932</v>
+        <v>480.951027543685</v>
       </c>
       <c r="F13" t="n">
-        <v>261.2819526336065</v>
+        <v>361.2531473054983</v>
       </c>
       <c r="G13" t="n">
         <v>255.6708458765328</v>
@@ -5197,52 +5197,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376952</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430788</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535515</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152579</v>
+        <v>829.0079369980072</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3695470152579</v>
+        <v>635.4074251142009</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1083.380217797493</v>
       </c>
       <c r="E14" t="n">
-        <v>724.7840324589724</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589724</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="G14" t="n">
         <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039934</v>
+        <v>3146.820141253115</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573494</v>
+        <v>3146.820141253115</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489647</v>
+        <v>3146.820141253115</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479257</v>
+        <v>2821.243553242724</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.632071629606</v>
+        <v>2478.579336345693</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.632071629606</v>
+        <v>2115.632071629605</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>780.5481833010722</v>
+        <v>874.1382522219807</v>
       </c>
       <c r="C16" t="n">
-        <v>638.804067632889</v>
+        <v>732.3941365537976</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8794954802769</v>
+        <v>609.4695644011857</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802769</v>
+        <v>488.7485380785164</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420902</v>
+        <v>396.1816152420899</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>255.6708458765327</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541142</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003744</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705059</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402573</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2121.149050331956</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>2121.149050331956</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1926.574502161205</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1664.663702546572</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1437.171281600409</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1174.946178823172</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1486951848785</v>
+        <v>1028.594649792497</v>
       </c>
       <c r="Y16" t="n">
-        <v>780.5481833010722</v>
+        <v>1028.594649792497</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.862197398328</v>
+        <v>1632.378438483215</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.541380665713</v>
+        <v>1338.057621750601</v>
       </c>
       <c r="D17" t="n">
-        <v>1252.91738226676</v>
+        <v>1054.433623351647</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>743.2870709612002</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>406.9428663793898</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>2836.785223223154</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219625</v>
+        <v>2558.658268160837</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2259.834210107554</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398328</v>
+        <v>1944.33657833954</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228011</v>
@@ -5656,25 +5656,25 @@
         <v>462.3823511989066</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879834</v>
+        <v>389.1109578243106</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>316.8627105341973</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>223.8015741167134</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604099</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542003</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1518.904057542003</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1235.28005914305</v>
+        <v>940.959242410433</v>
       </c>
       <c r="E20" t="n">
-        <v>924.1335067526028</v>
+        <v>629.8126900199861</v>
       </c>
       <c r="F20" t="n">
-        <v>587.7893021707923</v>
+        <v>629.8126900199861</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166342</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398327</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5899,25 +5899,25 @@
         <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803861</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604102</v>
+        <v>89.19609340604099</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,13 +5929,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1849.07579691749</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T22" t="n">
         <v>1584.906697729437</v>
@@ -5975,7 +5975,7 @@
         <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531245</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059181</v>
@@ -5987,28 +5987,28 @@
         <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.4813261528503</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>722.3006998426968</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1173.334913091106</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1706.86681776303</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329806</v>
+        <v>2756.618105701149</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.525057137381</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893063</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
@@ -6026,7 +6026,7 @@
         <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714064</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902794</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290282</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235727</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504577</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830758</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094328</v>
+        <v>92.38504642094441</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,34 +6084,34 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923639</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516154</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009634</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.69394068749</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821905</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590163</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861961</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656428</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138541</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937442</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892056</v>
+        <v>406.2179954528784</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146096</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
         <v>260.6983547881691</v>
@@ -6139,7 +6139,7 @@
         <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179633996</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
@@ -6148,13 +6148,13 @@
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720297</v>
+        <v>829.1450609357028</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362968</v>
+        <v>682.9941819999697</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6218,43 @@
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659143</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2548.674958929623</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>2805.568476424368</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277654</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
@@ -6294,13 +6294,13 @@
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873063</v>
@@ -6309,13 +6309,13 @@
         <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
         <v>652.6145002899661</v>
@@ -6370,7 +6370,7 @@
         <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643393</v>
@@ -6379,7 +6379,7 @@
         <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,13 +6388,13 @@
         <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481263</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198915</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6540,25 +6540,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
         <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6637,13 +6637,13 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052751</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I32" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1326.966459396847</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2305.516762226675</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3645.361240939449</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643395</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.9279421464337</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C37" t="n">
-        <v>626.6631937923702</v>
+        <v>473.299353011007</v>
       </c>
       <c r="D37" t="n">
-        <v>575.2179889538779</v>
+        <v>421.8541481725147</v>
       </c>
       <c r="E37" t="n">
-        <v>427.3048953714849</v>
+        <v>372.6124891639649</v>
       </c>
       <c r="F37" t="n">
-        <v>379.0863824474179</v>
+        <v>324.3939762398978</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>255.3625741884601</v>
       </c>
       <c r="H37" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
         <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.015667870534</v>
+        <v>877.9803925153277</v>
       </c>
       <c r="X37" t="n">
-        <v>1000.69755154636</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.5764069766734</v>
+        <v>626.541131621467</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464976</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307336</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7181,43 +7181,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650712</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C40" t="n">
-        <v>430.6660820368716</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983795</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898299</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919195</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.057868640482</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1182.105910636354</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552288</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891712</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649975</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214673</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668172</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515852</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746125</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049854</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362618</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>598.2565075725894</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C43" t="n">
-        <v>429.3203246446825</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D43" t="n">
-        <v>377.8751198061904</v>
+        <v>379.2208771983801</v>
       </c>
       <c r="E43" t="n">
-        <v>328.6334607976409</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735741</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3835458221366</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058688</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1182.105910636354</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891714</v>
+        <v>835.3471215411931</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649977</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953112</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.4050786964424</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368718</v>
+        <v>725.3346283662138</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983796</v>
+        <v>575.217988953878</v>
       </c>
       <c r="E46" t="n">
-        <v>329.97921818983</v>
+        <v>427.3048953714849</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657631</v>
+        <v>280.4149478735746</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1430.923028089547</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1274.909974457503</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205426</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>856.1746880963688</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0535435266821</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430617</v>
+        <v>157.2353108430636</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728987</v>
+        <v>184.4039433729016</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389578</v>
+        <v>191.4948909389614</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333039</v>
+        <v>181.0856325333079</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830212</v>
+        <v>179.3553748830253</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383963</v>
+        <v>182.8301554384001</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586562</v>
+        <v>190.8908035586594</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266107</v>
+        <v>192.0103836266131</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875966</v>
+        <v>112.6562001875977</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372519</v>
+        <v>113.6031223372539</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672255</v>
+        <v>105.9629718672281</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253571</v>
+        <v>104.1013981253602</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677429</v>
+        <v>92.30246558677746</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359715</v>
+        <v>106.8829608359744</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798307</v>
+        <v>105.3113487798331</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615447</v>
+        <v>120.8212784615462</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564647</v>
+        <v>116.1755252564662</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085216</v>
+        <v>119.1996074085232</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140767</v>
+        <v>108.4284123140782</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530914</v>
+        <v>120.6694600530929</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662696</v>
+        <v>122.5080856662708</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185278</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>274.0980055054509</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>306.6874953089233</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544125</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>306.6874953089253</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>277.2206841544134</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>274.8351763665428</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>40.02214132148598</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0221961971937</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.0582240143376</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>292.8828533972226</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>133.5506659823988</v>
+        <v>34.57918325722592</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579968</v>
+        <v>14.65678318579941</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104928</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830083</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>251.4303397501883</v>
+        <v>3.57337936328156</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.85964782774262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.85247794360849</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494644</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649682</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>24.21355985564017</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.3396371318014</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>41.6745097481137</v>
+        <v>0.07135577741105975</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1293637.684375034</v>
+        <v>1293637.684375036</v>
       </c>
     </row>
     <row r="5">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225300.9931471856</v>
+        <v>225300.9931471855</v>
       </c>
       <c r="C2" t="n">
         <v>225300.9931471855</v>
@@ -26323,10 +26323,10 @@
         <v>200623.5002488679</v>
       </c>
       <c r="F2" t="n">
-        <v>200623.5002488679</v>
+        <v>200623.500248868</v>
       </c>
       <c r="G2" t="n">
-        <v>218495.9758427975</v>
+        <v>218495.9758427974</v>
       </c>
       <c r="H2" t="n">
         <v>218495.9758427973</v>
@@ -26335,22 +26335,22 @@
         <v>225786.4867126778</v>
       </c>
       <c r="J2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="K2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="N2" t="n">
+        <v>225786.4867126779</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.486712678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126779</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126779</v>
@@ -26369,43 +26369,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552629</v>
+        <v>59764.55367552145</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163628</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983337</v>
+        <v>22821.46782983387</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.47822764929151e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475027</v>
+        <v>426120.6833475044</v>
       </c>
       <c r="E4" t="n">
         <v>39414.21797863751</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863746</v>
+        <v>39414.21797863758</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.3783400798</v>
+        <v>76442.37834007974</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007973</v>
+        <v>76442.37834007974</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.3356060285</v>
+        <v>89331.33560602844</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.5572993633</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936341</v>
+        <v>86909.55729936328</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936333</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316954</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316939</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186645</v>
+        <v>35148.90543186633</v>
       </c>
       <c r="E5" t="n">
         <v>76569.4903648264</v>
@@ -26482,31 +26482,31 @@
         <v>76569.49036482642</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255351.2271252073</v>
+        <v>-255355.6407030754</v>
       </c>
       <c r="C6" t="n">
-        <v>-255351.2271252073</v>
+        <v>-255355.6407030754</v>
       </c>
       <c r="D6" t="n">
-        <v>-295727.0082582601</v>
+        <v>-295731.3660084028</v>
       </c>
       <c r="E6" t="n">
-        <v>-1004599.180258224</v>
+        <v>-1004827.934680627</v>
       </c>
       <c r="F6" t="n">
-        <v>84639.79190540385</v>
+        <v>84411.03748300567</v>
       </c>
       <c r="G6" t="n">
-        <v>23954.84508262872</v>
+        <v>23888.56771108438</v>
       </c>
       <c r="H6" t="n">
-        <v>61534.95437750267</v>
+        <v>61468.67700595833</v>
       </c>
       <c r="I6" t="n">
-        <v>27897.15497497382</v>
+        <v>27897.15497497338</v>
       </c>
       <c r="J6" t="n">
-        <v>24089.55471671167</v>
+        <v>24089.55471671162</v>
       </c>
       <c r="K6" t="n">
-        <v>49498.98773850845</v>
+        <v>49498.98773850864</v>
       </c>
       <c r="L6" t="n">
-        <v>11918.87844363453</v>
+        <v>11918.8784436345</v>
       </c>
       <c r="M6" t="n">
-        <v>-150474.1655394657</v>
+        <v>-150474.1655394655</v>
       </c>
       <c r="N6" t="n">
-        <v>51693.93445325847</v>
+        <v>51693.93445325863</v>
       </c>
       <c r="O6" t="n">
-        <v>51693.93445325857</v>
+        <v>51693.93445325874</v>
       </c>
       <c r="P6" t="n">
-        <v>51693.93445325848</v>
+        <v>51693.93445325865</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="G2" t="n">
         <v>73.8952832057191</v>
@@ -26707,25 +26707,25 @@
         <v>73.8952832057191</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283791051</v>
+        <v>69.78465283790486</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>917.2219352810296</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283791051</v>
+        <v>69.78465283790486</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755387</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873671</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434003</v>
+        <v>336.6017083434006</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104721</v>
+        <v>199.6603204104729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780164</v>
+        <v>132.2465643780179</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036568</v>
+        <v>202.6272343036574</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672076</v>
+        <v>84.22861846672117</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987463</v>
+        <v>90.83829126987538</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519032</v>
+        <v>84.46220888519103</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989474</v>
+        <v>7.649035050990658</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.6245606731699</v>
+        <v>75.62456067317075</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437874</v>
+        <v>171.6351144437879</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207382</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4079043982189</v>
+        <v>227.407904398219</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712657</v>
       </c>
     </row>
     <row r="17">
@@ -28728,7 +28728,7 @@
         <v>73.8952832057191</v>
       </c>
       <c r="E19" t="n">
-        <v>11.49558901075517</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F19" t="n">
         <v>73.8952832057191</v>
@@ -28737,7 +28737,7 @@
         <v>73.8952832057191</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="I19" t="n">
         <v>73.8952832057191</v>
@@ -28819,7 +28819,7 @@
         <v>73.8952832057191</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29004,13 +29004,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075542</v>
       </c>
       <c r="S22" t="n">
         <v>73.8952832057191</v>
       </c>
       <c r="T22" t="n">
-        <v>11.495589010755</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U22" t="n">
         <v>73.8952832057191</v>
@@ -29056,7 +29056,7 @@
         <v>73.8952832057191</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>73.8952832057191</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075517</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G25" t="n">
         <v>73.8952832057191</v>
@@ -29259,7 +29259,7 @@
         <v>73.8952832057191</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075491</v>
       </c>
       <c r="Y25" t="n">
         <v>73.8952832057191</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859085</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>54.14548214544497</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.14548214544428</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371023</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810512</v>
+        <v>46.72521440565396</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.14548214544273</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810516</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810516</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810516</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>46.72521440565295</v>
+        <v>54.14548214544436</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413486</v>
+        <v>0.2805413179413259</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366837</v>
+        <v>2.873093772366604</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993385</v>
+        <v>10.81556915993298</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362456</v>
+        <v>23.81059368362263</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208185</v>
+        <v>35.68590767207895</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102941</v>
+        <v>44.27152403102582</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396886</v>
+        <v>49.26060069396487</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356972</v>
+        <v>50.05768871356567</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598329043</v>
+        <v>47.2680559832866</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661338</v>
+        <v>40.34219219661011</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783883</v>
+        <v>30.29530624783637</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313326</v>
+        <v>17.62255356313182</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588488</v>
+        <v>6.392835282587969</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288254</v>
+        <v>1.228069619288155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530788</v>
+        <v>0.02244330543530606</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796566</v>
+        <v>0.1501028381796444</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840368</v>
+        <v>1.44967741084025</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694317</v>
+        <v>5.168014384693898</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790701</v>
+        <v>14.18142647906895</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710709</v>
+        <v>24.23831663710513</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264868</v>
+        <v>32.59140791264604</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666122</v>
+        <v>38.03263579665814</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655902</v>
+        <v>39.03924649655585</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847294</v>
+        <v>35.71328360847004</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449951</v>
+        <v>28.66305863449719</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447687</v>
+        <v>19.16049562447531</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768506</v>
+        <v>9.319542882767751</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78809438460897</v>
+        <v>2.788094384608744</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890542</v>
+        <v>0.6050197731890051</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345832</v>
+        <v>0.009875186722345032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486911</v>
+        <v>0.1258411772486809</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811091</v>
+        <v>1.118842466811</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307882</v>
+        <v>3.784387403078513</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482459</v>
+        <v>8.896971231481738</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489338</v>
+        <v>14.62045677489219</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477358</v>
+        <v>18.70915102477207</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908345</v>
+        <v>19.72617653908186</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115653</v>
+        <v>19.25713215115497</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875136</v>
+        <v>17.78707839874992</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287805</v>
+        <v>15.21991838287682</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852449</v>
+        <v>10.53748257852363</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933382054</v>
+        <v>5.658276933381595</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516234006</v>
+        <v>2.193068516233829</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625891</v>
+        <v>0.5376850300625454</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564976</v>
+        <v>0.006864064213564419</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31868,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31917,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31935,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019276</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
@@ -35817,13 +35817,13 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687142</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597742</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>318.2864356872403</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>672.8599917248225</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>814.7404961971424</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737845</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887893</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412307</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564863</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>858.9893307218366</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>785.2736850426326</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637019</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>730.4252907588748</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>290.8164461252055</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193701</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
